--- a/biology/Médecine/Coprologie/Coprologie.xlsx
+++ b/biology/Médecine/Coprologie/Coprologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coprologie est la discipline scientifique qui étudie des matières fécales. Elle trouve son application dans les domaines de la médecine (recherche de parasites, de germes infectieux ou d'indices d'autres pathologies) et de l'écologie (détermination des régimes alimentaires, identification des individus par empreinte génétique).
 En médecine, la coproculture est l'examen principal, il consiste à mettre en culture un échantillon de selles afin de déceler la présence de germes pathogènes.
